--- a/成果物/外部設計書_検索結果.xlsx
+++ b/成果物/外部設計書_検索結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD08E4-442B-4FF9-B415-B7F8C8057297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB59A5-245D-42C0-B7B1-672A144FB284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
